--- a/Supplemental appendices- 1.xlsx
+++ b/Supplemental appendices- 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b7b9c3181eaa273/Reserch project 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b7b9c3181eaa273/Project1-sf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC95C937-28CD-4D47-AF8A-FC5F27DC696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{EC95C937-28CD-4D47-AF8A-FC5F27DC696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A623C700-A058-4104-BF80-EAF24895A0A2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{317B474F-F769-4622-8DC6-1D79F713F7A0}"/>
   </bookViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0455DB4A-938A-4D13-9BA3-68BE83ADC115}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
